--- a/biology/Médecine/Cortex_périrhinal/Cortex_périrhinal.xlsx
+++ b/biology/Médecine/Cortex_périrhinal/Cortex_périrhinal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cortex_p%C3%A9rirhinal</t>
+          <t>Cortex_périrhinal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cortex périrhinal est une région médiane du lobe temporal située dans les régions de Brodmann 35 et 36. Il reçoit des informations préalablement traitées et qui viennent des régions sensorielles. Il est entouré par le cortex postrhinal et les régions parahippocampales ainsi que le cortex entorhinal. 
 Il est récemment accepté que le cortex périrhinal joue un rôle important dans le processus de mémoire explicite.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cortex_p%C3%A9rirhinal</t>
+          <t>Cortex_périrhinal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Aspect psychologique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Au plan anatomique, il s'agit de l'interface entre le cortex sensoriel (analyse stimuli au point de vue sensoriel) et entre l'hippocampe.
 Le cortex périrhinal reçoit les inférences des aires sensoriels, et projettent vers l'hippocampe. Il est donc l'aboutissement des analyses sensorielles, le carrefour les permettant de les projeter sur l'hippocampe.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cortex_p%C3%A9rirhinal</t>
+          <t>Cortex_périrhinal</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Expérience chez le rongeur</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est impliqué dans la mémoire perceptive.
 On utilise un test de reconnaissance d'objet : il implique tout processus de reconnaissance.
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cortex_p%C3%A9rirhinal</t>
+          <t>Cortex_périrhinal</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +597,9 @@
           <t>Expérience chez le primate</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On utilise une tâche de non-appariement différé : DNMS
 Dans chaque trou, il y a un objet sous lequel objet nouveau est glissé une récompense, donc à chaque étape le primate doit se rappeler quels sont les -anciens- objets pour saisir le nouveau, ce qui fait appel à la reconnaissance d'objets, dans le but de saisir la récompense. Après la première condition et un délai de 10 min, le singe se souvient ou non de l'objet déjà déplacé.
